--- a/docs/mcode/shr-lab-SimpleQuantLabWithRequiredUnits.xlsx
+++ b/docs/mcode/shr-lab-SimpleQuantLabWithRequiredUnits.xlsx
@@ -606,7 +606,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
